--- a/doc/KeyV1/KeyV1_LWMName/standard_dict_V1_oldname_102b.xlsx
+++ b/doc/KeyV1/KeyV1_LWMName/standard_dict_V1_oldname_102b.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baolongsu\Desktop\Scripts\Python\LipidAnaPackage_V1\LipidAnaPackage_V1\KeyV1_2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baolongsu\Desktop\Scripts\Python\LipidAnaPackage_V1\SLA_1.12_test\doc\KeyV1\KeyV1_LWMName\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Method1" sheetId="3" r:id="rId1"/>
@@ -4033,8 +4033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O471"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4085,7 +4085,7 @@
         <v>0.1</v>
       </c>
       <c r="E2">
-        <f>ROUND(D2/C2*100000*F2/2.5,8)</f>
+        <f>ROUND(D2/C2*100000*F2/2.5,8)/IF(G2=TRUE,2,1)</f>
         <v>19.814143340000001</v>
       </c>
       <c r="F2">
@@ -4113,7 +4113,7 @@
         <v>0.1</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="1">ROUND(D3/C3*100000*F3/2.5,8)</f>
+        <f t="shared" ref="E3:E66" si="1">ROUND(D3/C3*100000*F3/2.5,8)/IF(G3=TRUE,2,1)</f>
         <v>19.814143340000001</v>
       </c>
       <c r="F3">
@@ -5907,7 +5907,7 @@
         <v>8.43E-2</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="3">ROUND(D67/C67*100000*F67/2.5,8)</f>
+        <f t="shared" ref="E67:E130" si="3">ROUND(D67/C67*100000*F67/2.5,8)/IF(G67=TRUE,2,1)</f>
         <v>7.8160950600000003</v>
       </c>
       <c r="F67">
@@ -6186,8 +6186,8 @@
         <f>VLOOKUP(B77,StdInfo!B:E,2,FALSE)</f>
         <v>8.43E-2</v>
       </c>
-      <c r="E77" s="17">
-        <f>ROUND(D77/C77*100000*F77/2.5,8)/2</f>
+      <c r="E77">
+        <f t="shared" si="3"/>
         <v>3.9080475300000002</v>
       </c>
       <c r="F77" s="17">
@@ -6410,8 +6410,8 @@
         <f>VLOOKUP(B85,StdInfo!B:E,2,FALSE)</f>
         <v>8.43E-2</v>
       </c>
-      <c r="E85" s="17">
-        <f>ROUND(D85/C85*100000*F85/2.5,8)/2</f>
+      <c r="E85">
+        <f t="shared" si="3"/>
         <v>3.9080475300000002</v>
       </c>
       <c r="F85" s="17">
@@ -6858,8 +6858,8 @@
         <f>VLOOKUP(B101,StdInfo!B:E,2,FALSE)</f>
         <v>0.38040000000000002</v>
       </c>
-      <c r="E101" s="17">
-        <f>ROUND(D101/C101*100000*F101/2.5,8)/2</f>
+      <c r="E101">
+        <f t="shared" si="3"/>
         <v>16.991790590000001</v>
       </c>
       <c r="F101" s="17">
@@ -6914,8 +6914,8 @@
         <f>VLOOKUP(B103,StdInfo!B:E,2,FALSE)</f>
         <v>0.38040000000000002</v>
       </c>
-      <c r="E103" s="17">
-        <f>ROUND(D103/C103*100000*F103/2.5,8)/2</f>
+      <c r="E103">
+        <f t="shared" si="3"/>
         <v>16.991790590000001</v>
       </c>
       <c r="F103" s="17">
@@ -7166,8 +7166,8 @@
         <f>VLOOKUP(B112,StdInfo!B:E,2,FALSE)</f>
         <v>0.37990000000000002</v>
       </c>
-      <c r="E112" s="17">
-        <f>ROUND(D112/C112*100000*F112/2.5,8)/2</f>
+      <c r="E112">
+        <f t="shared" si="3"/>
         <v>17.013948675000002</v>
       </c>
       <c r="F112" s="17">
@@ -7699,7 +7699,7 @@
         <v>0.38040000000000002</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E194" si="5">ROUND(D131/C131*100000*F131/2.5,8)</f>
+        <f t="shared" ref="E131:E194" si="5">ROUND(D131/C131*100000*F131/2.5,8)/IF(G131=TRUE,2,1)</f>
         <v>33.983581180000002</v>
       </c>
       <c r="F131">
@@ -9491,7 +9491,7 @@
         <v>9.8699999999999996E-2</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E258" si="7">ROUND(D195/C195*100000*F195/2.5,8)</f>
+        <f t="shared" ref="E195:E258" si="7">ROUND(D195/C195*100000*F195/2.5,8)/IF(G195=TRUE,2,1)</f>
         <v>8.2787515999999997</v>
       </c>
       <c r="F195">
@@ -10330,8 +10330,8 @@
         <f>VLOOKUP(B225,StdInfo!B:E,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="E225" s="17">
-        <f>ROUND(D225/C225*100000*F225/2.5,8)/2</f>
+      <c r="E225">
+        <f t="shared" si="7"/>
         <v>0.66170168500000004</v>
       </c>
       <c r="F225" s="17">
@@ -10722,8 +10722,8 @@
         <f>VLOOKUP(B239,StdInfo!B:E,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="E239" s="17">
-        <f>ROUND(D239/C239*100000*F239/2.5,8)/2</f>
+      <c r="E239">
+        <f t="shared" si="7"/>
         <v>0.66170168500000004</v>
       </c>
       <c r="F239" s="17">
@@ -11086,8 +11086,8 @@
         <f>VLOOKUP(B252,StdInfo!B:E,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="E252" s="17">
-        <f>ROUND(D252/C252*100000*F252/2.5,8)/2</f>
+      <c r="E252">
+        <f t="shared" si="7"/>
         <v>0.66170168500000004</v>
       </c>
       <c r="F252" s="17">
@@ -11142,8 +11142,8 @@
         <f>VLOOKUP(B254,StdInfo!B:E,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="E254" s="17">
-        <f>ROUND(D254/C254*100000*F254/2.5,8)/2</f>
+      <c r="E254">
+        <f t="shared" si="7"/>
         <v>0.66170168500000004</v>
       </c>
       <c r="F254" s="17">
@@ -11283,7 +11283,7 @@
         <v>0.01</v>
       </c>
       <c r="E259">
-        <f t="shared" ref="E259:E322" si="9">ROUND(D259/C259*100000*F259/2.5,8)</f>
+        <f t="shared" ref="E259:E322" si="9">ROUND(D259/C259*100000*F259/2.5,8)/IF(G259=TRUE,2,1)</f>
         <v>1.3234033700000001</v>
       </c>
       <c r="F259">
@@ -12206,8 +12206,8 @@
         <f>VLOOKUP(B292,StdInfo!B:E,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="E292" s="17">
-        <f>ROUND(D292/C292*100000*F292/2.5,8)/2</f>
+      <c r="E292">
+        <f t="shared" si="9"/>
         <v>0.66347840999999996</v>
       </c>
       <c r="F292" s="17">
@@ -13075,7 +13075,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E323">
-        <f t="shared" ref="E323:E386" si="11">ROUND(D323/C323*100000*F323/2.5,8)</f>
+        <f t="shared" ref="E323:E386" si="11">ROUND(D323/C323*100000*F323/2.5,8)/IF(G323=TRUE,2,1)</f>
         <v>0.33263681</v>
       </c>
       <c r="F323">
@@ -14867,7 +14867,7 @@
         <v>2.8E-3</v>
       </c>
       <c r="E387">
-        <f t="shared" ref="E387:E450" si="13">ROUND(D387/C387*100000*F387/2.5,8)</f>
+        <f t="shared" ref="E387:E450" si="13">ROUND(D387/C387*100000*F387/2.5,8)/IF(G387=TRUE,2,1)</f>
         <v>0.34827615000000001</v>
       </c>
       <c r="F387">
@@ -16659,7 +16659,7 @@
         <v>0.1</v>
       </c>
       <c r="E451">
-        <f t="shared" ref="E451:E471" si="15">ROUND(D451/C451*100000*F451/2.5,8)</f>
+        <f t="shared" ref="E451:E471" si="15">ROUND(D451/C451*100000*F451/2.5,8)/IF(G451=TRUE,2,1)</f>
         <v>14.09224785</v>
       </c>
       <c r="F451">
@@ -17241,8 +17241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G713"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17292,7 +17292,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E2">
-        <f>ROUND(D2/C2*100000*F2/2.5,8)</f>
+        <f>ROUND(D2/C2*100000*F2/2.5,8)/IF(G2=TRUE,2,1)</f>
         <v>22.165225929999998</v>
       </c>
       <c r="F2">
@@ -17320,7 +17320,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">ROUND(D3/C3*100000*F3/2.5,8)</f>
+        <f t="shared" ref="E3:E66" si="0">ROUND(D3/C3*100000*F3/2.5,8)/IF(G3=TRUE,2,1)</f>
         <v>22.165225929999998</v>
       </c>
       <c r="F3">
@@ -18019,8 +18019,8 @@
         <f>VLOOKUP(B28,StdInfo!B:E,2,FALSE)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E28" s="17">
-        <f>ROUND(D28/C28*100000*F28/2.5,8)/2</f>
+      <c r="E28">
+        <f t="shared" si="0"/>
         <v>0.35321005500000002</v>
       </c>
       <c r="F28" s="17">
@@ -18243,8 +18243,8 @@
         <f>VLOOKUP(B36,StdInfo!B:E,2,FALSE)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E36" s="17">
-        <f>ROUND(D36/C36*100000*F36/2.5,8)/2</f>
+      <c r="E36">
+        <f t="shared" si="0"/>
         <v>0.35321005500000002</v>
       </c>
       <c r="F36" s="17">
@@ -18327,8 +18327,8 @@
         <f>VLOOKUP(B39,StdInfo!B:E,2,FALSE)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E39" s="17">
-        <f>ROUND(D39/C39*100000*F39/2.5,8)/2</f>
+      <c r="E39">
+        <f t="shared" si="0"/>
         <v>0.422486205</v>
       </c>
       <c r="F39" s="17">
@@ -18831,8 +18831,8 @@
         <f>VLOOKUP(B57,StdInfo!B:E,2,FALSE)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E57" s="17">
-        <f>ROUND(D57/C57*100000*F57/2.5,8)/2</f>
+      <c r="E57">
+        <f t="shared" si="0"/>
         <v>0.422486205</v>
       </c>
       <c r="F57" s="17">
@@ -19112,7 +19112,7 @@
         <v>1.3699999999999999E-3</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="2">ROUND(D67/C67*100000*F67/2.5,8)</f>
+        <f t="shared" ref="E67:E130" si="2">ROUND(D67/C67*100000*F67/2.5,8)/IF(G67=TRUE,2,1)</f>
         <v>0.21513024</v>
       </c>
       <c r="F67">
@@ -19447,8 +19447,8 @@
         <f>VLOOKUP(B79,StdInfo!B:E,2,FALSE)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E79" s="17">
-        <f>ROUND(D79/C79*100000*F79/2.5,8)/2</f>
+      <c r="E79">
+        <f t="shared" si="2"/>
         <v>0.42107696500000003</v>
       </c>
       <c r="F79" s="17">
@@ -20904,7 +20904,7 @@
         <v>0.03</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E194" si="4">ROUND(D131/C131*100000*F131/2.5,8)</f>
+        <f t="shared" ref="E131:E194" si="4">ROUND(D131/C131*100000*F131/2.5,8)/IF(G131=TRUE,2,1)</f>
         <v>3.4433285499999999</v>
       </c>
       <c r="F131">
@@ -22696,7 +22696,7 @@
         <v>0.13</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E258" si="6">ROUND(D195/C195*100000*F195/2.5,8)</f>
+        <f t="shared" ref="E195:E258" si="6">ROUND(D195/C195*100000*F195/2.5,8)/IF(G195=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F195">
@@ -24488,7 +24488,7 @@
         <v>0.13</v>
       </c>
       <c r="E259">
-        <f t="shared" ref="E259:E322" si="8">ROUND(D259/C259*100000*F259/2.5,8)</f>
+        <f t="shared" ref="E259:E322" si="8">ROUND(D259/C259*100000*F259/2.5,8)/IF(G259=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F259">
@@ -26280,7 +26280,7 @@
         <v>0.13</v>
       </c>
       <c r="E323">
-        <f t="shared" ref="E323:E386" si="10">ROUND(D323/C323*100000*F323/2.5,8)</f>
+        <f t="shared" ref="E323:E386" si="10">ROUND(D323/C323*100000*F323/2.5,8)/IF(G323=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F323">
@@ -28072,7 +28072,7 @@
         <v>0.13</v>
       </c>
       <c r="E387">
-        <f t="shared" ref="E387:E450" si="12">ROUND(D387/C387*100000*F387/2.5,8)</f>
+        <f t="shared" ref="E387:E450" si="12">ROUND(D387/C387*100000*F387/2.5,8)/IF(G387=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F387">
@@ -29864,7 +29864,7 @@
         <v>0.13</v>
       </c>
       <c r="E451">
-        <f t="shared" ref="E451:E514" si="14">ROUND(D451/C451*100000*F451/2.5,8)</f>
+        <f t="shared" ref="E451:E514" si="14">ROUND(D451/C451*100000*F451/2.5,8)/IF(G451=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F451">
@@ -31656,7 +31656,7 @@
         <v>0.13</v>
       </c>
       <c r="E515">
-        <f t="shared" ref="E515:E578" si="16">ROUND(D515/C515*100000*F515/2.5,8)</f>
+        <f t="shared" ref="E515:E578" si="16">ROUND(D515/C515*100000*F515/2.5,8)/IF(G515=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F515">
@@ -33448,7 +33448,7 @@
         <v>0.13</v>
       </c>
       <c r="E579">
-        <f t="shared" ref="E579:E642" si="18">ROUND(D579/C579*100000*F579/2.5,8)</f>
+        <f t="shared" ref="E579:E642" si="18">ROUND(D579/C579*100000*F579/2.5,8)/IF(G579=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F579">
@@ -35240,7 +35240,7 @@
         <v>0.13</v>
       </c>
       <c r="E643">
-        <f t="shared" ref="E643:E706" si="20">ROUND(D643/C643*100000*F643/2.5,8)</f>
+        <f t="shared" ref="E643:E706" si="20">ROUND(D643/C643*100000*F643/2.5,8)/IF(G643=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F643">
@@ -37032,7 +37032,7 @@
         <v>0.13</v>
       </c>
       <c r="E707">
-        <f t="shared" ref="E707:E713" si="22">ROUND(D707/C707*100000*F707/2.5,8)</f>
+        <f t="shared" ref="E707:E713" si="22">ROUND(D707/C707*100000*F707/2.5,8)/IF(G707=TRUE,2,1)</f>
         <v>14.81481481</v>
       </c>
       <c r="F707">

--- a/doc/KeyV1/KeyV1_LWMName/standard_dict_V1_oldname_102b.xlsx
+++ b/doc/KeyV1/KeyV1_LWMName/standard_dict_V1_oldname_102b.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baolongsu\Desktop\Scripts\Python\LipidAnaPackage_V1\LipidAnaPackage_V1\KeyV1_2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baolongsu\Desktop\Scripts\Python\LipidAnaPackage_V1\SLA_1.12_test\doc\KeyV1\KeyV1_LWMName\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Method1" sheetId="3" r:id="rId1"/>
@@ -4033,8 +4033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O471"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4085,7 +4085,7 @@
         <v>0.1</v>
       </c>
       <c r="E2">
-        <f>ROUND(D2/C2*100000*F2/2.5,8)</f>
+        <f>ROUND(D2/C2*100000*F2/2.5,8)/IF(G2=TRUE,2,1)</f>
         <v>19.814143340000001</v>
       </c>
       <c r="F2">
@@ -4113,7 +4113,7 @@
         <v>0.1</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="1">ROUND(D3/C3*100000*F3/2.5,8)</f>
+        <f t="shared" ref="E3:E66" si="1">ROUND(D3/C3*100000*F3/2.5,8)/IF(G3=TRUE,2,1)</f>
         <v>19.814143340000001</v>
       </c>
       <c r="F3">
@@ -5907,7 +5907,7 @@
         <v>8.43E-2</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="3">ROUND(D67/C67*100000*F67/2.5,8)</f>
+        <f t="shared" ref="E67:E130" si="3">ROUND(D67/C67*100000*F67/2.5,8)/IF(G67=TRUE,2,1)</f>
         <v>7.8160950600000003</v>
       </c>
       <c r="F67">
@@ -6186,8 +6186,8 @@
         <f>VLOOKUP(B77,StdInfo!B:E,2,FALSE)</f>
         <v>8.43E-2</v>
       </c>
-      <c r="E77" s="17">
-        <f>ROUND(D77/C77*100000*F77/2.5,8)/2</f>
+      <c r="E77">
+        <f t="shared" si="3"/>
         <v>3.9080475300000002</v>
       </c>
       <c r="F77" s="17">
@@ -6410,8 +6410,8 @@
         <f>VLOOKUP(B85,StdInfo!B:E,2,FALSE)</f>
         <v>8.43E-2</v>
       </c>
-      <c r="E85" s="17">
-        <f>ROUND(D85/C85*100000*F85/2.5,8)/2</f>
+      <c r="E85">
+        <f t="shared" si="3"/>
         <v>3.9080475300000002</v>
       </c>
       <c r="F85" s="17">
@@ -6858,8 +6858,8 @@
         <f>VLOOKUP(B101,StdInfo!B:E,2,FALSE)</f>
         <v>0.38040000000000002</v>
       </c>
-      <c r="E101" s="17">
-        <f>ROUND(D101/C101*100000*F101/2.5,8)/2</f>
+      <c r="E101">
+        <f t="shared" si="3"/>
         <v>16.991790590000001</v>
       </c>
       <c r="F101" s="17">
@@ -6914,8 +6914,8 @@
         <f>VLOOKUP(B103,StdInfo!B:E,2,FALSE)</f>
         <v>0.38040000000000002</v>
       </c>
-      <c r="E103" s="17">
-        <f>ROUND(D103/C103*100000*F103/2.5,8)/2</f>
+      <c r="E103">
+        <f t="shared" si="3"/>
         <v>16.991790590000001</v>
       </c>
       <c r="F103" s="17">
@@ -7166,8 +7166,8 @@
         <f>VLOOKUP(B112,StdInfo!B:E,2,FALSE)</f>
         <v>0.37990000000000002</v>
       </c>
-      <c r="E112" s="17">
-        <f>ROUND(D112/C112*100000*F112/2.5,8)/2</f>
+      <c r="E112">
+        <f t="shared" si="3"/>
         <v>17.013948675000002</v>
       </c>
       <c r="F112" s="17">
@@ -7699,7 +7699,7 @@
         <v>0.38040000000000002</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E194" si="5">ROUND(D131/C131*100000*F131/2.5,8)</f>
+        <f t="shared" ref="E131:E194" si="5">ROUND(D131/C131*100000*F131/2.5,8)/IF(G131=TRUE,2,1)</f>
         <v>33.983581180000002</v>
       </c>
       <c r="F131">
@@ -9491,7 +9491,7 @@
         <v>9.8699999999999996E-2</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E258" si="7">ROUND(D195/C195*100000*F195/2.5,8)</f>
+        <f t="shared" ref="E195:E258" si="7">ROUND(D195/C195*100000*F195/2.5,8)/IF(G195=TRUE,2,1)</f>
         <v>8.2787515999999997</v>
       </c>
       <c r="F195">
@@ -10330,8 +10330,8 @@
         <f>VLOOKUP(B225,StdInfo!B:E,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="E225" s="17">
-        <f>ROUND(D225/C225*100000*F225/2.5,8)/2</f>
+      <c r="E225">
+        <f t="shared" si="7"/>
         <v>0.66170168500000004</v>
       </c>
       <c r="F225" s="17">
@@ -10722,8 +10722,8 @@
         <f>VLOOKUP(B239,StdInfo!B:E,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="E239" s="17">
-        <f>ROUND(D239/C239*100000*F239/2.5,8)/2</f>
+      <c r="E239">
+        <f t="shared" si="7"/>
         <v>0.66170168500000004</v>
       </c>
       <c r="F239" s="17">
@@ -11086,8 +11086,8 @@
         <f>VLOOKUP(B252,StdInfo!B:E,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="E252" s="17">
-        <f>ROUND(D252/C252*100000*F252/2.5,8)/2</f>
+      <c r="E252">
+        <f t="shared" si="7"/>
         <v>0.66170168500000004</v>
       </c>
       <c r="F252" s="17">
@@ -11142,8 +11142,8 @@
         <f>VLOOKUP(B254,StdInfo!B:E,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="E254" s="17">
-        <f>ROUND(D254/C254*100000*F254/2.5,8)/2</f>
+      <c r="E254">
+        <f t="shared" si="7"/>
         <v>0.66170168500000004</v>
       </c>
       <c r="F254" s="17">
@@ -11283,7 +11283,7 @@
         <v>0.01</v>
       </c>
       <c r="E259">
-        <f t="shared" ref="E259:E322" si="9">ROUND(D259/C259*100000*F259/2.5,8)</f>
+        <f t="shared" ref="E259:E322" si="9">ROUND(D259/C259*100000*F259/2.5,8)/IF(G259=TRUE,2,1)</f>
         <v>1.3234033700000001</v>
       </c>
       <c r="F259">
@@ -12206,8 +12206,8 @@
         <f>VLOOKUP(B292,StdInfo!B:E,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="E292" s="17">
-        <f>ROUND(D292/C292*100000*F292/2.5,8)/2</f>
+      <c r="E292">
+        <f t="shared" si="9"/>
         <v>0.66347840999999996</v>
       </c>
       <c r="F292" s="17">
@@ -13075,7 +13075,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E323">
-        <f t="shared" ref="E323:E386" si="11">ROUND(D323/C323*100000*F323/2.5,8)</f>
+        <f t="shared" ref="E323:E386" si="11">ROUND(D323/C323*100000*F323/2.5,8)/IF(G323=TRUE,2,1)</f>
         <v>0.33263681</v>
       </c>
       <c r="F323">
@@ -14867,7 +14867,7 @@
         <v>2.8E-3</v>
       </c>
       <c r="E387">
-        <f t="shared" ref="E387:E450" si="13">ROUND(D387/C387*100000*F387/2.5,8)</f>
+        <f t="shared" ref="E387:E450" si="13">ROUND(D387/C387*100000*F387/2.5,8)/IF(G387=TRUE,2,1)</f>
         <v>0.34827615000000001</v>
       </c>
       <c r="F387">
@@ -16659,7 +16659,7 @@
         <v>0.1</v>
       </c>
       <c r="E451">
-        <f t="shared" ref="E451:E471" si="15">ROUND(D451/C451*100000*F451/2.5,8)</f>
+        <f t="shared" ref="E451:E471" si="15">ROUND(D451/C451*100000*F451/2.5,8)/IF(G451=TRUE,2,1)</f>
         <v>14.09224785</v>
       </c>
       <c r="F451">
@@ -17241,8 +17241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G713"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17292,7 +17292,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E2">
-        <f>ROUND(D2/C2*100000*F2/2.5,8)</f>
+        <f>ROUND(D2/C2*100000*F2/2.5,8)/IF(G2=TRUE,2,1)</f>
         <v>22.165225929999998</v>
       </c>
       <c r="F2">
@@ -17320,7 +17320,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">ROUND(D3/C3*100000*F3/2.5,8)</f>
+        <f t="shared" ref="E3:E66" si="0">ROUND(D3/C3*100000*F3/2.5,8)/IF(G3=TRUE,2,1)</f>
         <v>22.165225929999998</v>
       </c>
       <c r="F3">
@@ -18019,8 +18019,8 @@
         <f>VLOOKUP(B28,StdInfo!B:E,2,FALSE)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E28" s="17">
-        <f>ROUND(D28/C28*100000*F28/2.5,8)/2</f>
+      <c r="E28">
+        <f t="shared" si="0"/>
         <v>0.35321005500000002</v>
       </c>
       <c r="F28" s="17">
@@ -18243,8 +18243,8 @@
         <f>VLOOKUP(B36,StdInfo!B:E,2,FALSE)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E36" s="17">
-        <f>ROUND(D36/C36*100000*F36/2.5,8)/2</f>
+      <c r="E36">
+        <f t="shared" si="0"/>
         <v>0.35321005500000002</v>
       </c>
       <c r="F36" s="17">
@@ -18327,8 +18327,8 @@
         <f>VLOOKUP(B39,StdInfo!B:E,2,FALSE)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E39" s="17">
-        <f>ROUND(D39/C39*100000*F39/2.5,8)/2</f>
+      <c r="E39">
+        <f t="shared" si="0"/>
         <v>0.422486205</v>
       </c>
       <c r="F39" s="17">
@@ -18831,8 +18831,8 @@
         <f>VLOOKUP(B57,StdInfo!B:E,2,FALSE)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E57" s="17">
-        <f>ROUND(D57/C57*100000*F57/2.5,8)/2</f>
+      <c r="E57">
+        <f t="shared" si="0"/>
         <v>0.422486205</v>
       </c>
       <c r="F57" s="17">
@@ -19112,7 +19112,7 @@
         <v>1.3699999999999999E-3</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="2">ROUND(D67/C67*100000*F67/2.5,8)</f>
+        <f t="shared" ref="E67:E130" si="2">ROUND(D67/C67*100000*F67/2.5,8)/IF(G67=TRUE,2,1)</f>
         <v>0.21513024</v>
       </c>
       <c r="F67">
@@ -19447,8 +19447,8 @@
         <f>VLOOKUP(B79,StdInfo!B:E,2,FALSE)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E79" s="17">
-        <f>ROUND(D79/C79*100000*F79/2.5,8)/2</f>
+      <c r="E79">
+        <f t="shared" si="2"/>
         <v>0.42107696500000003</v>
       </c>
       <c r="F79" s="17">
@@ -20904,7 +20904,7 @@
         <v>0.03</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E194" si="4">ROUND(D131/C131*100000*F131/2.5,8)</f>
+        <f t="shared" ref="E131:E194" si="4">ROUND(D131/C131*100000*F131/2.5,8)/IF(G131=TRUE,2,1)</f>
         <v>3.4433285499999999</v>
       </c>
       <c r="F131">
@@ -22696,7 +22696,7 @@
         <v>0.13</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E258" si="6">ROUND(D195/C195*100000*F195/2.5,8)</f>
+        <f t="shared" ref="E195:E258" si="6">ROUND(D195/C195*100000*F195/2.5,8)/IF(G195=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F195">
@@ -24488,7 +24488,7 @@
         <v>0.13</v>
       </c>
       <c r="E259">
-        <f t="shared" ref="E259:E322" si="8">ROUND(D259/C259*100000*F259/2.5,8)</f>
+        <f t="shared" ref="E259:E322" si="8">ROUND(D259/C259*100000*F259/2.5,8)/IF(G259=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F259">
@@ -26280,7 +26280,7 @@
         <v>0.13</v>
       </c>
       <c r="E323">
-        <f t="shared" ref="E323:E386" si="10">ROUND(D323/C323*100000*F323/2.5,8)</f>
+        <f t="shared" ref="E323:E386" si="10">ROUND(D323/C323*100000*F323/2.5,8)/IF(G323=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F323">
@@ -28072,7 +28072,7 @@
         <v>0.13</v>
       </c>
       <c r="E387">
-        <f t="shared" ref="E387:E450" si="12">ROUND(D387/C387*100000*F387/2.5,8)</f>
+        <f t="shared" ref="E387:E450" si="12">ROUND(D387/C387*100000*F387/2.5,8)/IF(G387=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F387">
@@ -29864,7 +29864,7 @@
         <v>0.13</v>
       </c>
       <c r="E451">
-        <f t="shared" ref="E451:E514" si="14">ROUND(D451/C451*100000*F451/2.5,8)</f>
+        <f t="shared" ref="E451:E514" si="14">ROUND(D451/C451*100000*F451/2.5,8)/IF(G451=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F451">
@@ -31656,7 +31656,7 @@
         <v>0.13</v>
       </c>
       <c r="E515">
-        <f t="shared" ref="E515:E578" si="16">ROUND(D515/C515*100000*F515/2.5,8)</f>
+        <f t="shared" ref="E515:E578" si="16">ROUND(D515/C515*100000*F515/2.5,8)/IF(G515=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F515">
@@ -33448,7 +33448,7 @@
         <v>0.13</v>
       </c>
       <c r="E579">
-        <f t="shared" ref="E579:E642" si="18">ROUND(D579/C579*100000*F579/2.5,8)</f>
+        <f t="shared" ref="E579:E642" si="18">ROUND(D579/C579*100000*F579/2.5,8)/IF(G579=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F579">
@@ -35240,7 +35240,7 @@
         <v>0.13</v>
       </c>
       <c r="E643">
-        <f t="shared" ref="E643:E706" si="20">ROUND(D643/C643*100000*F643/2.5,8)</f>
+        <f t="shared" ref="E643:E706" si="20">ROUND(D643/C643*100000*F643/2.5,8)/IF(G643=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F643">
@@ -37032,7 +37032,7 @@
         <v>0.13</v>
       </c>
       <c r="E707">
-        <f t="shared" ref="E707:E713" si="22">ROUND(D707/C707*100000*F707/2.5,8)</f>
+        <f t="shared" ref="E707:E713" si="22">ROUND(D707/C707*100000*F707/2.5,8)/IF(G707=TRUE,2,1)</f>
         <v>14.81481481</v>
       </c>
       <c r="F707">

--- a/doc/KeyV1/KeyV1_LWMName/standard_dict_V1_oldname_102b.xlsx
+++ b/doc/KeyV1/KeyV1_LWMName/standard_dict_V1_oldname_102b.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baolongsu\Desktop\Scripts\Python\LipidAnaPackage_V1\LipidAnaPackage_V1\KeyV1_2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baolongsu\Desktop\Scripts\Python\LipidAnaPackage_V1\SLA_1.12_test\doc\KeyV1\KeyV1_LWMName\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7500"/>
   </bookViews>
   <sheets>
     <sheet name="Method1" sheetId="3" r:id="rId1"/>
@@ -4033,8 +4033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O471"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4085,7 +4085,7 @@
         <v>0.1</v>
       </c>
       <c r="E2">
-        <f>ROUND(D2/C2*100000*F2/2.5,8)</f>
+        <f>ROUND(D2/C2*100000*F2/2.5,8)/IF(G2=TRUE,2,1)</f>
         <v>19.814143340000001</v>
       </c>
       <c r="F2">
@@ -4113,7 +4113,7 @@
         <v>0.1</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="1">ROUND(D3/C3*100000*F3/2.5,8)</f>
+        <f t="shared" ref="E3:E66" si="1">ROUND(D3/C3*100000*F3/2.5,8)/IF(G3=TRUE,2,1)</f>
         <v>19.814143340000001</v>
       </c>
       <c r="F3">
@@ -5907,7 +5907,7 @@
         <v>8.43E-2</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="3">ROUND(D67/C67*100000*F67/2.5,8)</f>
+        <f t="shared" ref="E67:E130" si="3">ROUND(D67/C67*100000*F67/2.5,8)/IF(G67=TRUE,2,1)</f>
         <v>7.8160950600000003</v>
       </c>
       <c r="F67">
@@ -6186,8 +6186,8 @@
         <f>VLOOKUP(B77,StdInfo!B:E,2,FALSE)</f>
         <v>8.43E-2</v>
       </c>
-      <c r="E77" s="17">
-        <f>ROUND(D77/C77*100000*F77/2.5,8)/2</f>
+      <c r="E77">
+        <f t="shared" si="3"/>
         <v>3.9080475300000002</v>
       </c>
       <c r="F77" s="17">
@@ -6410,8 +6410,8 @@
         <f>VLOOKUP(B85,StdInfo!B:E,2,FALSE)</f>
         <v>8.43E-2</v>
       </c>
-      <c r="E85" s="17">
-        <f>ROUND(D85/C85*100000*F85/2.5,8)/2</f>
+      <c r="E85">
+        <f t="shared" si="3"/>
         <v>3.9080475300000002</v>
       </c>
       <c r="F85" s="17">
@@ -6858,8 +6858,8 @@
         <f>VLOOKUP(B101,StdInfo!B:E,2,FALSE)</f>
         <v>0.38040000000000002</v>
       </c>
-      <c r="E101" s="17">
-        <f>ROUND(D101/C101*100000*F101/2.5,8)/2</f>
+      <c r="E101">
+        <f t="shared" si="3"/>
         <v>16.991790590000001</v>
       </c>
       <c r="F101" s="17">
@@ -6914,8 +6914,8 @@
         <f>VLOOKUP(B103,StdInfo!B:E,2,FALSE)</f>
         <v>0.38040000000000002</v>
       </c>
-      <c r="E103" s="17">
-        <f>ROUND(D103/C103*100000*F103/2.5,8)/2</f>
+      <c r="E103">
+        <f t="shared" si="3"/>
         <v>16.991790590000001</v>
       </c>
       <c r="F103" s="17">
@@ -7166,8 +7166,8 @@
         <f>VLOOKUP(B112,StdInfo!B:E,2,FALSE)</f>
         <v>0.37990000000000002</v>
       </c>
-      <c r="E112" s="17">
-        <f>ROUND(D112/C112*100000*F112/2.5,8)/2</f>
+      <c r="E112">
+        <f t="shared" si="3"/>
         <v>17.013948675000002</v>
       </c>
       <c r="F112" s="17">
@@ -7699,7 +7699,7 @@
         <v>0.38040000000000002</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E194" si="5">ROUND(D131/C131*100000*F131/2.5,8)</f>
+        <f t="shared" ref="E131:E194" si="5">ROUND(D131/C131*100000*F131/2.5,8)/IF(G131=TRUE,2,1)</f>
         <v>33.983581180000002</v>
       </c>
       <c r="F131">
@@ -9491,7 +9491,7 @@
         <v>9.8699999999999996E-2</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E258" si="7">ROUND(D195/C195*100000*F195/2.5,8)</f>
+        <f t="shared" ref="E195:E258" si="7">ROUND(D195/C195*100000*F195/2.5,8)/IF(G195=TRUE,2,1)</f>
         <v>8.2787515999999997</v>
       </c>
       <c r="F195">
@@ -10330,8 +10330,8 @@
         <f>VLOOKUP(B225,StdInfo!B:E,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="E225" s="17">
-        <f>ROUND(D225/C225*100000*F225/2.5,8)/2</f>
+      <c r="E225">
+        <f t="shared" si="7"/>
         <v>0.66170168500000004</v>
       </c>
       <c r="F225" s="17">
@@ -10722,8 +10722,8 @@
         <f>VLOOKUP(B239,StdInfo!B:E,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="E239" s="17">
-        <f>ROUND(D239/C239*100000*F239/2.5,8)/2</f>
+      <c r="E239">
+        <f t="shared" si="7"/>
         <v>0.66170168500000004</v>
       </c>
       <c r="F239" s="17">
@@ -11086,8 +11086,8 @@
         <f>VLOOKUP(B252,StdInfo!B:E,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="E252" s="17">
-        <f>ROUND(D252/C252*100000*F252/2.5,8)/2</f>
+      <c r="E252">
+        <f t="shared" si="7"/>
         <v>0.66170168500000004</v>
       </c>
       <c r="F252" s="17">
@@ -11142,8 +11142,8 @@
         <f>VLOOKUP(B254,StdInfo!B:E,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="E254" s="17">
-        <f>ROUND(D254/C254*100000*F254/2.5,8)/2</f>
+      <c r="E254">
+        <f t="shared" si="7"/>
         <v>0.66170168500000004</v>
       </c>
       <c r="F254" s="17">
@@ -11283,7 +11283,7 @@
         <v>0.01</v>
       </c>
       <c r="E259">
-        <f t="shared" ref="E259:E322" si="9">ROUND(D259/C259*100000*F259/2.5,8)</f>
+        <f t="shared" ref="E259:E322" si="9">ROUND(D259/C259*100000*F259/2.5,8)/IF(G259=TRUE,2,1)</f>
         <v>1.3234033700000001</v>
       </c>
       <c r="F259">
@@ -12206,8 +12206,8 @@
         <f>VLOOKUP(B292,StdInfo!B:E,2,FALSE)</f>
         <v>0.01</v>
       </c>
-      <c r="E292" s="17">
-        <f>ROUND(D292/C292*100000*F292/2.5,8)/2</f>
+      <c r="E292">
+        <f t="shared" si="9"/>
         <v>0.66347840999999996</v>
       </c>
       <c r="F292" s="17">
@@ -13075,7 +13075,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="E323">
-        <f t="shared" ref="E323:E386" si="11">ROUND(D323/C323*100000*F323/2.5,8)</f>
+        <f t="shared" ref="E323:E386" si="11">ROUND(D323/C323*100000*F323/2.5,8)/IF(G323=TRUE,2,1)</f>
         <v>0.33263681</v>
       </c>
       <c r="F323">
@@ -14867,7 +14867,7 @@
         <v>2.8E-3</v>
       </c>
       <c r="E387">
-        <f t="shared" ref="E387:E450" si="13">ROUND(D387/C387*100000*F387/2.5,8)</f>
+        <f t="shared" ref="E387:E450" si="13">ROUND(D387/C387*100000*F387/2.5,8)/IF(G387=TRUE,2,1)</f>
         <v>0.34827615000000001</v>
       </c>
       <c r="F387">
@@ -16659,7 +16659,7 @@
         <v>0.1</v>
       </c>
       <c r="E451">
-        <f t="shared" ref="E451:E471" si="15">ROUND(D451/C451*100000*F451/2.5,8)</f>
+        <f t="shared" ref="E451:E471" si="15">ROUND(D451/C451*100000*F451/2.5,8)/IF(G451=TRUE,2,1)</f>
         <v>14.09224785</v>
       </c>
       <c r="F451">
@@ -17241,8 +17241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G713"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17292,7 +17292,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E2">
-        <f>ROUND(D2/C2*100000*F2/2.5,8)</f>
+        <f>ROUND(D2/C2*100000*F2/2.5,8)/IF(G2=TRUE,2,1)</f>
         <v>22.165225929999998</v>
       </c>
       <c r="F2">
@@ -17320,7 +17320,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">ROUND(D3/C3*100000*F3/2.5,8)</f>
+        <f t="shared" ref="E3:E66" si="0">ROUND(D3/C3*100000*F3/2.5,8)/IF(G3=TRUE,2,1)</f>
         <v>22.165225929999998</v>
       </c>
       <c r="F3">
@@ -18019,8 +18019,8 @@
         <f>VLOOKUP(B28,StdInfo!B:E,2,FALSE)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E28" s="17">
-        <f>ROUND(D28/C28*100000*F28/2.5,8)/2</f>
+      <c r="E28">
+        <f t="shared" si="0"/>
         <v>0.35321005500000002</v>
       </c>
       <c r="F28" s="17">
@@ -18243,8 +18243,8 @@
         <f>VLOOKUP(B36,StdInfo!B:E,2,FALSE)</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E36" s="17">
-        <f>ROUND(D36/C36*100000*F36/2.5,8)/2</f>
+      <c r="E36">
+        <f t="shared" si="0"/>
         <v>0.35321005500000002</v>
       </c>
       <c r="F36" s="17">
@@ -18327,8 +18327,8 @@
         <f>VLOOKUP(B39,StdInfo!B:E,2,FALSE)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E39" s="17">
-        <f>ROUND(D39/C39*100000*F39/2.5,8)/2</f>
+      <c r="E39">
+        <f t="shared" si="0"/>
         <v>0.422486205</v>
       </c>
       <c r="F39" s="17">
@@ -18831,8 +18831,8 @@
         <f>VLOOKUP(B57,StdInfo!B:E,2,FALSE)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E57" s="17">
-        <f>ROUND(D57/C57*100000*F57/2.5,8)/2</f>
+      <c r="E57">
+        <f t="shared" si="0"/>
         <v>0.422486205</v>
       </c>
       <c r="F57" s="17">
@@ -19112,7 +19112,7 @@
         <v>1.3699999999999999E-3</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="2">ROUND(D67/C67*100000*F67/2.5,8)</f>
+        <f t="shared" ref="E67:E130" si="2">ROUND(D67/C67*100000*F67/2.5,8)/IF(G67=TRUE,2,1)</f>
         <v>0.21513024</v>
       </c>
       <c r="F67">
@@ -19447,8 +19447,8 @@
         <f>VLOOKUP(B79,StdInfo!B:E,2,FALSE)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E79" s="17">
-        <f>ROUND(D79/C79*100000*F79/2.5,8)/2</f>
+      <c r="E79">
+        <f t="shared" si="2"/>
         <v>0.42107696500000003</v>
       </c>
       <c r="F79" s="17">
@@ -20904,7 +20904,7 @@
         <v>0.03</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E194" si="4">ROUND(D131/C131*100000*F131/2.5,8)</f>
+        <f t="shared" ref="E131:E194" si="4">ROUND(D131/C131*100000*F131/2.5,8)/IF(G131=TRUE,2,1)</f>
         <v>3.4433285499999999</v>
       </c>
       <c r="F131">
@@ -22696,7 +22696,7 @@
         <v>0.13</v>
       </c>
       <c r="E195">
-        <f t="shared" ref="E195:E258" si="6">ROUND(D195/C195*100000*F195/2.5,8)</f>
+        <f t="shared" ref="E195:E258" si="6">ROUND(D195/C195*100000*F195/2.5,8)/IF(G195=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F195">
@@ -24488,7 +24488,7 @@
         <v>0.13</v>
       </c>
       <c r="E259">
-        <f t="shared" ref="E259:E322" si="8">ROUND(D259/C259*100000*F259/2.5,8)</f>
+        <f t="shared" ref="E259:E322" si="8">ROUND(D259/C259*100000*F259/2.5,8)/IF(G259=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F259">
@@ -26280,7 +26280,7 @@
         <v>0.13</v>
       </c>
       <c r="E323">
-        <f t="shared" ref="E323:E386" si="10">ROUND(D323/C323*100000*F323/2.5,8)</f>
+        <f t="shared" ref="E323:E386" si="10">ROUND(D323/C323*100000*F323/2.5,8)/IF(G323=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F323">
@@ -28072,7 +28072,7 @@
         <v>0.13</v>
       </c>
       <c r="E387">
-        <f t="shared" ref="E387:E450" si="12">ROUND(D387/C387*100000*F387/2.5,8)</f>
+        <f t="shared" ref="E387:E450" si="12">ROUND(D387/C387*100000*F387/2.5,8)/IF(G387=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F387">
@@ -29864,7 +29864,7 @@
         <v>0.13</v>
       </c>
       <c r="E451">
-        <f t="shared" ref="E451:E514" si="14">ROUND(D451/C451*100000*F451/2.5,8)</f>
+        <f t="shared" ref="E451:E514" si="14">ROUND(D451/C451*100000*F451/2.5,8)/IF(G451=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F451">
@@ -31656,7 +31656,7 @@
         <v>0.13</v>
       </c>
       <c r="E515">
-        <f t="shared" ref="E515:E578" si="16">ROUND(D515/C515*100000*F515/2.5,8)</f>
+        <f t="shared" ref="E515:E578" si="16">ROUND(D515/C515*100000*F515/2.5,8)/IF(G515=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F515">
@@ -33448,7 +33448,7 @@
         <v>0.13</v>
       </c>
       <c r="E579">
-        <f t="shared" ref="E579:E642" si="18">ROUND(D579/C579*100000*F579/2.5,8)</f>
+        <f t="shared" ref="E579:E642" si="18">ROUND(D579/C579*100000*F579/2.5,8)/IF(G579=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F579">
@@ -35240,7 +35240,7 @@
         <v>0.13</v>
       </c>
       <c r="E643">
-        <f t="shared" ref="E643:E706" si="20">ROUND(D643/C643*100000*F643/2.5,8)</f>
+        <f t="shared" ref="E643:E706" si="20">ROUND(D643/C643*100000*F643/2.5,8)/IF(G643=TRUE,2,1)</f>
         <v>15.23700914</v>
       </c>
       <c r="F643">
@@ -37032,7 +37032,7 @@
         <v>0.13</v>
       </c>
       <c r="E707">
-        <f t="shared" ref="E707:E713" si="22">ROUND(D707/C707*100000*F707/2.5,8)</f>
+        <f t="shared" ref="E707:E713" si="22">ROUND(D707/C707*100000*F707/2.5,8)/IF(G707=TRUE,2,1)</f>
         <v>14.81481481</v>
       </c>
       <c r="F707">
